--- a/DOCS/Test Cases/TC03-Close Crisis.xlsx
+++ b/DOCS/Test Cases/TC03-Close Crisis.xlsx
@@ -930,7 +930,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,8 +938,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="4" max="10" width="7.140625" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
